--- a/バグチェックリスト/180223_最新版.xlsx
+++ b/バグチェックリスト/180223_最新版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yajima Tomoyuki\Documents\newTeam_03_Project_02\バグチェックリスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\G015A1288\3rdSecondSemester\バグチェックリスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -12166,9 +12166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12250,9 +12250,11 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I4" s="28">
+        <v>43154</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="15">
